--- a/biology/Biologie cellulaire et moléculaire/Paolo_Sassone-Corsi/Paolo_Sassone-Corsi.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Paolo_Sassone-Corsi/Paolo_Sassone-Corsi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paolo Sassone-Corsi, né le 8 juin 1956 à Naples en Italie et mort le 23 juillet 2020 à Irvine aux États-Unis[1],[2], est un chercheur en biologie moléculaire italien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paolo Sassone-Corsi, né le 8 juin 1956 à Naples en Italie et mort le 23 juillet 2020 à Irvine aux États-Unis est un chercheur en biologie moléculaire italien.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paolo Sassone-Corsi soutient sa thèse de biologie moléculaire à l'université de Naples en 1979 puis fait un premier post-doctorat dans le laboratoire de Pierre Chambon à Strasbourg, et un second au Salk Institute dans le laboratoire d'Inder Verma à San Diego en Californie. En 1989, il obtient un poste de directeur de recherche au CNRS à l'Institut de génétique et de biologie moléculaire et cellulaire de Strasbourg.
-À partir de 2006, il est également professeur à l'Université de Californie à Irvine (UCI) où il occupe depuis 2011 le poste de directeur[3] du département d'« Épigénétique et métabolisme ». Il prend également la direction de l'unité mixte Inserm 1233/UCI (créée en 2008 par Emiliana Borrelli) qui possède la particularité unique d'être officiellement localisée à Irvine en Californie[4].
-En 2013, il publie en collaboration un livre de réflexions réalisées par courriels avec l'écrivain Erri De Luca[5].
+À partir de 2006, il est également professeur à l'Université de Californie à Irvine (UCI) où il occupe depuis 2011 le poste de directeur du département d'« Épigénétique et métabolisme ». Il prend également la direction de l'unité mixte Inserm 1233/UCI (créée en 2008 par Emiliana Borrelli) qui possède la particularité unique d'être officiellement localisée à Irvine en Californie.
+En 2013, il publie en collaboration un livre de réflexions réalisées par courriels avec l'écrivain Erri De Luca.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Apport scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son travail scientifique s'est principalement attaché à la mise en œuvre d'approches moléculaires pour l'étude des voies de signalisation intracellulaires aboutissant à la régulation de l'expression des gènes pour le contrôle de l’établissement des rythmes circadiens[4], les régulations épigénétique et la plasticité du génome.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son travail scientifique s'est principalement attaché à la mise en œuvre d'approches moléculaires pour l'étude des voies de signalisation intracellulaires aboutissant à la régulation de l'expression des gènes pour le contrôle de l’établissement des rythmes circadiens, les régulations épigénétique et la plasticité du génome.
 </t>
         </is>
       </c>
@@ -575,12 +591,14 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1994 : Médaille d'or de l'EMBO
 1997 : Prix Liliane-Bettencourt (médecine)
 2003 : Prix Charles-Léopold Mayer de l'Académie des sciences
-2004 : Médaille d'argent du CNRS[6]</t>
+2004 : Médaille d'argent du CNRS</t>
         </is>
       </c>
     </row>
@@ -608,7 +626,9 @@
           <t>Ouvrage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ti sembra il Caso ? en collaboration avec Erri De Luca, éditions Feltrinelli, 2013  (ISBN 978-8807491436).</t>
         </is>
